--- a/tocheck/temptnrsprob.xlsx
+++ b/tocheck/temptnrsprob.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,11 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV19"/>
+  <dimension ref="A1:AW18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="49" max="49" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -598,6 +605,11 @@
           <t>WarningsEng</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>dateTNRS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -730,6 +742,9 @@
           <t>0</t>
         </is>
       </c>
+      <c r="AW2" s="2">
+        <v>45901</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -875,21 +890,19 @@
           <t>0</t>
         </is>
       </c>
+      <c r="AW3" s="2">
+        <v>45901</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brugmansia candida</t>
+          <t>Citharexylum mocinnoi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brugmansia candida</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Brugmansia x candida</t>
+          <t>Citharexylum mocinnoi</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -900,7 +913,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>699</t>
         </is>
       </c>
       <c r="G4">
@@ -908,7 +921,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1009730</t>
+          <t>1520168</t>
         </is>
       </c>
       <c r="I4">
@@ -919,24 +932,19 @@
           <t>species</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Pers.</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Solanaceae</t>
+          <t>Verbenaceae</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Brugmansia</t>
+          <t>Citharexylum</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Brugmansia</t>
+          <t>Citharexylum</t>
         </is>
       </c>
       <c r="R4">
@@ -944,22 +952,17 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>candida</t>
+          <t>mocinnoi</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>candida</t>
+          <t>mocinnoi</t>
         </is>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>https://www.worldfloraonline.org/taxon/wfo-0001019757</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
           <t>Y</t>
@@ -967,37 +970,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>Synonym</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Brugmansia x candida</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>Pers.</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>1009719</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>https://www.worldfloraonline.org/taxon/wfo-0001019746</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Solanaceae</t>
+          <t>No opinion</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1019,17 +992,25 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW4" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Citharexylum mocinnoi</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Citharexylum mocinnoi</t>
+          <t>Citrus aurantium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Citrus x aurantium</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -1040,7 +1021,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>703</t>
         </is>
       </c>
       <c r="G5">
@@ -1048,7 +1029,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1520168</t>
+          <t>600930</t>
         </is>
       </c>
       <c r="I5">
@@ -1059,19 +1040,24 @@
           <t>species</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Verbenaceae</t>
+          <t>Rutaceae</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Citharexylum</t>
+          <t>Citrus</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Citharexylum</t>
+          <t>Citrus</t>
         </is>
       </c>
       <c r="R5">
@@ -1079,17 +1065,22 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>mocinnoi</t>
+          <t>aurantium</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>mocinnoi</t>
+          <t>aurantium</t>
         </is>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:59600-2</t>
+        </is>
+      </c>
       <c r="AI5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -1097,7 +1088,37 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>No opinion</t>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Citrus x aurantium</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>600930</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:59600-2</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Rutaceae</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1112,29 +1133,32 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>wfo</t>
+          <t>wcvp</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW5" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Guarea grandifolia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Guarea grandifolia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Citrus x aurantium</t>
+          <t>Guarea guidonia</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -1145,7 +1169,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>1423</t>
         </is>
       </c>
       <c r="G6">
@@ -1153,7 +1177,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>600930</t>
+          <t>703303</t>
         </is>
       </c>
       <c r="I6">
@@ -1166,22 +1190,22 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>DC.</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Rutaceae</t>
+          <t>Meliaceae</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Citrus</t>
+          <t>Guarea</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Citrus</t>
+          <t>Guarea</t>
         </is>
       </c>
       <c r="R6">
@@ -1189,12 +1213,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>aurantium</t>
+          <t>grandifolia</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>aurantium</t>
+          <t>grandifolia</t>
         </is>
       </c>
       <c r="U6">
@@ -1202,7 +1226,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:59600-2</t>
+          <t>https://www.worldfloraonline.org/taxon/wfo-0000710902</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1212,22 +1236,22 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Synonym</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Citrus x aurantium</t>
+          <t>Guarea guidonia</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Sleumer</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>600930</t>
+          <t>703310</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1237,12 +1261,12 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:59600-2</t>
+          <t>https://www.worldfloraonline.org/taxon/wfo-0000710909</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>Rutaceae</t>
+          <t>Meliaceae</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1252,34 +1276,42 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>wcvp</t>
+          <t>wfo</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>[HigherTaxa]</t>
+        </is>
+      </c>
+      <c r="AW6" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Guarea grandifolia</t>
+          <t>Ilex fortunensis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Guarea grandifolia</t>
+          <t>Ilex fortunensis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Guarea guidonia</t>
+          <t>Ilex hahnii</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -1290,7 +1322,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="G7">
@@ -1298,7 +1330,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>703303</t>
+          <t>1064756</t>
         </is>
       </c>
       <c r="I7">
@@ -1311,22 +1343,22 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>DC.</t>
+          <t>W.J.Hahn</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Meliaceae</t>
+          <t>Aquifoliaceae</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Guarea</t>
+          <t>Ilex</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Guarea</t>
+          <t>Ilex</t>
         </is>
       </c>
       <c r="R7">
@@ -1334,12 +1366,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>grandifolia</t>
+          <t>fortunensis</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>grandifolia</t>
+          <t>fortunensis</t>
         </is>
       </c>
       <c r="U7">
@@ -1347,7 +1379,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>https://www.worldfloraonline.org/taxon/wfo-0000710902</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:301163-2</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1357,22 +1389,22 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>Synonym</t>
+          <t>Illegitimate</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Guarea guidonia</t>
+          <t>Ilex hahnii</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>(L.) Sleumer</t>
+          <t>Doweld</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>703310</t>
+          <t>1468620</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1382,12 +1414,12 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>https://www.worldfloraonline.org/taxon/wfo-0000710909</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:77193882-1</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>Meliaceae</t>
+          <t>Aquifoliaceae</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -1397,39 +1429,37 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>wfo</t>
+          <t>wcvp</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>[HigherTaxa]</t>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW7" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ilex fortunensis</t>
+          <t>Morinda seibertii</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ilex fortunensis</t>
+          <t>Morinda seibertii</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ilex hahnii</t>
+          <t>Appunia seibertii</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -1440,7 +1470,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="G8">
@@ -1448,7 +1478,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1064756</t>
+          <t>1660351</t>
         </is>
       </c>
       <c r="I8">
@@ -1461,22 +1491,22 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>W.J.Hahn</t>
+          <t>(Standl.) Steyerm.</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Aquifoliaceae</t>
+          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Ilex</t>
+          <t>Morinda</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Ilex</t>
+          <t>Morinda</t>
         </is>
       </c>
       <c r="R8">
@@ -1484,12 +1514,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>fortunensis</t>
+          <t>seibertii</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>fortunensis</t>
+          <t>seibertii</t>
         </is>
       </c>
       <c r="U8">
@@ -1497,7 +1527,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:301163-2</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:164345-2</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1507,22 +1537,22 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>Illegitimate</t>
+          <t>Synonym</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Ilex hahnii</t>
+          <t>Appunia seibertii</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>Doweld</t>
+          <t>Standl.</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1468620</t>
+          <t>1789989</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -1532,12 +1562,12 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:77193882-1</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:16747-2</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>Aquifoliaceae</t>
+          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -1559,22 +1589,20 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW8" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Morinda seibertii</t>
+          <t>Prunus fortunensis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Morinda seibertii</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Appunia seibertii</t>
+          <t>Prunus fortunensis</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -1585,7 +1613,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2255</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="G9">
@@ -1593,7 +1621,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1660351</t>
+          <t>986791</t>
         </is>
       </c>
       <c r="I9">
@@ -1606,22 +1634,22 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>(Standl.) Steyerm.</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Rubiaceae</t>
+          <t>Rosaceae</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Morinda</t>
+          <t>Prunus</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Morinda</t>
+          <t>Prunus</t>
         </is>
       </c>
       <c r="R9">
@@ -1629,12 +1657,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>seibertii</t>
+          <t>fortunensis</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>seibertii</t>
+          <t>fortunensis</t>
         </is>
       </c>
       <c r="U9">
@@ -1642,7 +1670,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:164345-2</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:283799-2</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1652,37 +1680,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>Synonym</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Appunia seibertii</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Standl.</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1789989</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:16747-2</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>Rubiaceae</t>
+          <t>No opinion</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -1704,17 +1702,25 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW9" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Prunus fortunensis</t>
+          <t>Ravenia rosea</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Prunus fortunensis</t>
+          <t>Ravenia rosea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ravenia spectabilis subsp. spectabilis</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -1725,7 +1731,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2974</t>
+          <t>3097</t>
         </is>
       </c>
       <c r="G10">
@@ -1733,7 +1739,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>986791</t>
+          <t>1722524</t>
         </is>
       </c>
       <c r="I10">
@@ -1746,22 +1752,22 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>Lebas</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Rosaceae</t>
+          <t>Rutaceae</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Prunus</t>
+          <t>Ravenia</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Prunus</t>
+          <t>Ravenia</t>
         </is>
       </c>
       <c r="R10">
@@ -1769,12 +1775,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>fortunensis</t>
+          <t>rosea</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>fortunensis</t>
+          <t>rosea</t>
         </is>
       </c>
       <c r="U10">
@@ -1782,7 +1788,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:283799-2</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:775015-1</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1792,7 +1798,32 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>No opinion</t>
+          <t>Synonym</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Ravenia spectabilis</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>1697568</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>subspecies</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:77226769-1</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>Rutaceae</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -1814,22 +1845,25 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW10" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ravenia rosea</t>
+          <t>Rhizophora harrisonii</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ravenia rosea</t>
+          <t>Rhizophora harrisonii</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ravenia spectabilis subsp. spectabilis</t>
+          <t>Rhizophora x harrisonii</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -1840,7 +1874,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3097</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="G11">
@@ -1848,7 +1882,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1722524</t>
+          <t>454371</t>
         </is>
       </c>
       <c r="I11">
@@ -1861,22 +1895,22 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Lebas</t>
+          <t>Leechm.</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Rutaceae</t>
+          <t>Rhizophoraceae</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Ravenia</t>
+          <t>Rhizophora</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Ravenia</t>
+          <t>Rhizophora</t>
         </is>
       </c>
       <c r="R11">
@@ -1884,12 +1918,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>rosea</t>
+          <t>harrisonii</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>rosea</t>
+          <t>harrisonii</t>
         </is>
       </c>
       <c r="U11">
@@ -1897,7 +1931,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:775015-1</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:219395-2</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -1907,32 +1941,37 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>Synonym</t>
+          <t>Accepted</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Ravenia spectabilis</t>
+          <t>Rhizophora x harrisonii</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Leechm.</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1697568</t>
+          <t>454371</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>subspecies</t>
+          <t>species</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:77226769-1</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:219395-2</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>Rutaceae</t>
+          <t>Rhizophoraceae</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -1954,22 +1993,20 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW11" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rhizophora harrisonii</t>
+          <t>Ruehssia crassipes</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rhizophora harrisonii</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Rhizophora x harrisonii</t>
+          <t>Ruehssia crassipes</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -1980,7 +2017,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="G12">
@@ -1988,7 +2025,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>454371</t>
+          <t>1498338</t>
         </is>
       </c>
       <c r="I12">
@@ -2001,22 +2038,22 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Leechm.</t>
+          <t>(Hemsl.) Morillo &amp; Mora</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Rhizophoraceae</t>
+          <t>Apocynaceae</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Rhizophora</t>
+          <t>Ruehssia</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Rhizophora</t>
+          <t>Ruehssia</t>
         </is>
       </c>
       <c r="R12">
@@ -2024,12 +2061,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>harrisonii</t>
+          <t>crassipes</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>harrisonii</t>
+          <t>crassipes</t>
         </is>
       </c>
       <c r="U12">
@@ -2037,7 +2074,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:219395-2</t>
+          <t>https://www.worldfloraonline.org/taxon/wfo-1000043393</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2047,37 +2084,7 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Rhizophora x harrisonii</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>Leechm.</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>454371</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:219395-2</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>Rhizophoraceae</t>
+          <t>No opinion</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -2092,24 +2099,27 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>wcvp</t>
+          <t>wfo</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW12" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ruehssia crassipes</t>
+          <t>Ruehssia dressleri</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ruehssia crassipes</t>
+          <t>Ruehssia dressleri</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -2120,7 +2130,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>3163</t>
         </is>
       </c>
       <c r="G13">
@@ -2128,7 +2138,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1498338</t>
+          <t>1498340</t>
         </is>
       </c>
       <c r="I13">
@@ -2141,7 +2151,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>(Hemsl.) Morillo &amp; Mora</t>
+          <t>(Spellman) Morillo &amp; Mora</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2164,12 +2174,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>crassipes</t>
+          <t>dressleri</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>crassipes</t>
+          <t>dressleri</t>
         </is>
       </c>
       <c r="U13">
@@ -2177,7 +2187,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>https://www.worldfloraonline.org/taxon/wfo-1000043393</t>
+          <t>https://www.worldfloraonline.org/taxon/wfo-1000043395</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2209,17 +2219,20 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW13" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ruehssia dressleri</t>
+          <t>Ruehssia engleriana</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ruehssia dressleri</t>
+          <t>Ruehssia engleriana</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -2230,7 +2243,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3163</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="G14">
@@ -2238,7 +2251,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1498340</t>
+          <t>1498341</t>
         </is>
       </c>
       <c r="I14">
@@ -2251,7 +2264,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>(Spellman) Morillo &amp; Mora</t>
+          <t>(W.Rothe) Morillo &amp; Mora</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2274,12 +2287,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>dressleri</t>
+          <t>engleriana</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>dressleri</t>
+          <t>engleriana</t>
         </is>
       </c>
       <c r="U14">
@@ -2287,7 +2300,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>https://www.worldfloraonline.org/taxon/wfo-1000043395</t>
+          <t>https://www.worldfloraonline.org/taxon/wfo-1000043396</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2319,17 +2332,20 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW14" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ruehssia engleriana</t>
+          <t>Sechium panamense</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ruehssia engleriana</t>
+          <t>Sechium panamense</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -2340,7 +2356,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3164</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="G15">
@@ -2348,7 +2364,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1498341</t>
+          <t>435942</t>
         </is>
       </c>
       <c r="I15">
@@ -2361,22 +2377,22 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>(W.Rothe) Morillo &amp; Mora</t>
+          <t>(Wunderlin) Lira &amp; F.Chiang</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Apocynaceae</t>
+          <t>Cucurbitaceae</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Ruehssia</t>
+          <t>Sechium</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Ruehssia</t>
+          <t>Sechium</t>
         </is>
       </c>
       <c r="R15">
@@ -2384,12 +2400,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>engleriana</t>
+          <t>panamense</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>engleriana</t>
+          <t>panamense</t>
         </is>
       </c>
       <c r="U15">
@@ -2397,7 +2413,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>https://www.worldfloraonline.org/taxon/wfo-1000043396</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:964783-1</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2422,24 +2438,27 @@
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>wfo</t>
+          <t>wcvp</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW15" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sechium panamense</t>
+          <t>Sechium pittieri</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sechium panamense</t>
+          <t>Sechium pittieri</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -2450,7 +2469,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>3250</t>
         </is>
       </c>
       <c r="G16">
@@ -2458,7 +2477,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>435942</t>
+          <t>435943</t>
         </is>
       </c>
       <c r="I16">
@@ -2471,7 +2490,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>(Wunderlin) Lira &amp; F.Chiang</t>
+          <t>(Cogn.) C.Jeffrey</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2494,12 +2513,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>panamense</t>
+          <t>pittieri</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>panamense</t>
+          <t>pittieri</t>
         </is>
       </c>
       <c r="U16">
@@ -2507,7 +2526,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:964783-1</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:231531-2</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -2539,17 +2558,20 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW16" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sechium pittieri</t>
+          <t>Sechium venosum</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sechium pittieri</t>
+          <t>Sechium venosum</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -2560,7 +2582,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>3251</t>
         </is>
       </c>
       <c r="G17">
@@ -2568,7 +2590,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>435943</t>
+          <t>435751</t>
         </is>
       </c>
       <c r="I17">
@@ -2581,7 +2603,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>(Cogn.) C.Jeffrey</t>
+          <t>(L.D.Gómez) Lira &amp; F.Chiang</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2604,12 +2626,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>pittieri</t>
+          <t>venosum</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>pittieri</t>
+          <t>venosum</t>
         </is>
       </c>
       <c r="U17">
@@ -2617,7 +2639,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:231531-2</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:964784-1</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -2649,17 +2671,25 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AW17" s="2">
+        <v>45901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sechium venosum</t>
+          <t>Vailia anomala</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sechium venosum</t>
+          <t>Vailia anomala</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Blepharodon mucronatum</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -2670,7 +2700,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3251</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="G18">
@@ -2678,7 +2708,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>435751</t>
+          <t>1437338</t>
         </is>
       </c>
       <c r="I18">
@@ -2691,22 +2721,22 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>(L.D.Gómez) Lira &amp; F.Chiang</t>
+          <t>(Brandegee) W.D.Stevens</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Cucurbitaceae</t>
+          <t>Apocynaceae</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Sechium</t>
+          <t>Vailia</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Sechium</t>
+          <t>Vailia</t>
         </is>
       </c>
       <c r="R18">
@@ -2714,12 +2744,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>venosum</t>
+          <t>anomala</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>venosum</t>
+          <t>anomala</t>
         </is>
       </c>
       <c r="U18">
@@ -2727,7 +2757,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:964784-1</t>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:60476540-2</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -2737,7 +2767,37 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>No opinion</t>
+          <t>Synonym</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Blepharodon mucronatum</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>(Schltdl.) Decne.</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>1613804</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:94927-1</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>Apocynaceae</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -2760,150 +2820,8 @@
           <t>0</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Vailia anomala</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Vailia anomala</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Blepharodon mucronatum</t>
-        </is>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3685</t>
-        </is>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1437338</t>
-        </is>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>(Brandegee) W.D.Stevens</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Apocynaceae</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Vailia</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Vailia</t>
-        </is>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>anomala</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>anomala</t>
-        </is>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:60476540-2</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>Synonym</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Blepharodon mucronatum</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>(Schltdl.) Decne.</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>1613804</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:94927-1</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>Apocynaceae</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>wcvp</t>
-        </is>
-      </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AW18" s="2">
+        <v>45901</v>
       </c>
     </row>
   </sheetData>

--- a/tocheck/temptnrsprob.xlsx
+++ b/tocheck/temptnrsprob.xlsx
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="AW2" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="3">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="AW3" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="4">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="AW4" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="5">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="AW5" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="6">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AW6" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="7">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="AW7" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="8">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="AW8" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="9">
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="AW9" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="10">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="AW10" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="11">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="AW11" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="12">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="AW12" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="13">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="AW13" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="14">
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="AW14" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="15">
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="AW15" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="16">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="AW16" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="17">
@@ -2673,7 +2673,7 @@
         </is>
       </c>
       <c r="AW17" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="18">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="AW18" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
   </sheetData>
